--- a/Data-output/var-info/parataxis-12.1.23.xlsx
+++ b/Data-output/var-info/parataxis-12.1.23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T470s\Documents\GitHub\ma_thesis_23-24\Data-output\var-info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AA619AF-060E-4FFE-BDC9-C511EB401FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D75931-10AB-4AC2-9D49-B524471A34B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{531D35E7-458D-455C-903D-7876903BB809}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
